--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SMIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="N8" s="3">
         <v>3100</v>
       </c>
-      <c r="H8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="O8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="L8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>2500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2100</v>
       </c>
       <c r="H9" s="3">
         <v>700</v>
       </c>
       <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
       <c r="H10" s="3">
+        <v>400</v>
+      </c>
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -918,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -933,16 +947,19 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>3600</v>
       </c>
       <c r="H17" s="3">
         <v>1500</v>
       </c>
       <c r="I17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="J17" s="3">
         <v>3600</v>
       </c>
       <c r="K17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3000</v>
       </c>
       <c r="Q17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1211,13 +1244,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1232,81 +1266,87 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-200</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1316,8 +1356,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>91</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>91</v>
@@ -1325,14 +1365,14 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>91</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1634,34 +1692,37 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
         <v>5100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>91</v>
       </c>
       <c r="H29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I29" s="3">
         <v>100</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1775,13 +1842,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1796,81 +1866,87 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E41" s="3">
         <v>12100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
-      </c>
-      <c r="O41" s="3">
-        <v>500</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
+        <v>500</v>
+      </c>
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2147,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>600</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2203,46 +2299,49 @@
         <v>1100</v>
       </c>
       <c r="E44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F44" s="3">
         <v>5000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>6100</v>
       </c>
       <c r="I44" s="3">
         <v>6100</v>
       </c>
       <c r="J44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K44" s="3">
         <v>5700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2250,16 +2349,16 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2271,7 +2370,7 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2280,63 +2379,69 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E46" s="3">
         <v>14000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2391,19 +2499,19 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>700</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>800</v>
       </c>
       <c r="J48" s="3">
         <v>800</v>
@@ -2418,19 +2526,22 @@
         <v>800</v>
       </c>
       <c r="N48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="O48" s="3">
         <v>900</v>
       </c>
       <c r="P48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2438,7 +2549,7 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -2450,7 +2561,7 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -2462,7 +2573,7 @@
         <v>500</v>
       </c>
       <c r="M49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N49" s="3">
         <v>600</v>
@@ -2471,13 +2582,16 @@
         <v>600</v>
       </c>
       <c r="P49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2570,22 +2687,25 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>91</v>
@@ -2596,8 +2716,8 @@
       <c r="J52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E54" s="3">
         <v>15000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2749,55 +2879,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -2813,8 +2947,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>91</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>91</v>
@@ -2822,8 +2956,8 @@
       <c r="J58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -2852,46 +2989,49 @@
         <v>900</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
+        <v>800</v>
+      </c>
+      <c r="O59" s="3">
         <v>900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>700</v>
       </c>
       <c r="P59" s="3">
         <v>700</v>
       </c>
       <c r="Q59" s="3">
+        <v>700</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
@@ -2902,10 +3042,10 @@
         <v>1200</v>
       </c>
       <c r="F60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G60" s="3">
         <v>1400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1800</v>
       </c>
       <c r="H60" s="3">
         <v>1800</v>
@@ -2917,28 +3057,31 @@
         <v>1800</v>
       </c>
       <c r="K60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -2984,19 +3127,22 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>91</v>
@@ -3010,8 +3156,8 @@
       <c r="J62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
@@ -3181,16 +3339,16 @@
         <v>1200</v>
       </c>
       <c r="E66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1800</v>
       </c>
       <c r="I66" s="3">
         <v>1800</v>
@@ -3199,28 +3357,31 @@
         <v>1800</v>
       </c>
       <c r="K66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>300</v>
+      </c>
+      <c r="E72" s="3">
         <v>400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-3300</v>
       </c>
       <c r="L72" s="3">
         <v>-3300</v>
       </c>
       <c r="M72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-3400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E76" s="3">
         <v>13900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -3853,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4174,19 +4394,20 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>91</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4315,17 +4542,20 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>10300</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4569,13 +4812,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -4584,16 +4830,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4625,29 +4874,29 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>10900</v>
-      </c>
-      <c r="E102" s="3">
-        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>200</v>
       </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SMIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,86 +665,94 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="E8" s="3">
         <v>1000</v>
@@ -753,7 +761,7 @@
         <v>1100</v>
       </c>
       <c r="G8" s="3">
-        <v>3800</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
         <v>1100</v>
@@ -762,84 +770,96 @@
         <v>1200</v>
       </c>
       <c r="J8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="3">
         <v>3400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3200</v>
       </c>
       <c r="M8" s="3">
         <v>3800</v>
       </c>
       <c r="N8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="P8" s="3">
         <v>3100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>500</v>
+      </c>
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>800</v>
+      </c>
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,49 +867,55 @@
         <v>600</v>
       </c>
       <c r="E10" s="3">
+        <v>500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>400</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1600</v>
       </c>
       <c r="L10" s="3">
         <v>1300</v>
       </c>
       <c r="M10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -950,16 +978,22 @@
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1042,37 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1177,66 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1184,49 +1244,55 @@
         <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,20 +1311,22 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1269,22 +1337,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1295,58 +1363,70 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
         <v>-200</v>
       </c>
       <c r="G21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1359,27 +1439,27 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1395,46 +1475,52 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F23" s="3">
         <v>-200</v>
       </c>
       <c r="G23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
@@ -1445,13 +1531,19 @@
       <c r="R23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,46 +1643,52 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
@@ -1595,46 +1699,52 @@
       <c r="R26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
@@ -1645,8 +1755,14 @@
       <c r="R27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,41 +1811,47 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>5100</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-100</v>
       </c>
       <c r="I29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K29" s="3">
+        <v>100</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1845,20 +1979,26 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1869,22 +2009,22 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1895,46 +2035,52 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
@@ -1945,8 +2091,14 @@
       <c r="R33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1995,46 +2147,52 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
@@ -2045,63 +2203,75 @@
       <c r="R35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F41" s="3">
         <v>10500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>12100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>900</v>
       </c>
       <c r="P41" s="3">
         <v>500</v>
       </c>
       <c r="Q41" s="3">
+        <v>900</v>
+      </c>
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>500</v>
+      </c>
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2249,122 +2435,134 @@
         <v>600</v>
       </c>
       <c r="E43" s="3">
+        <v>600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2200</v>
       </c>
       <c r="N43" s="3">
         <v>2100</v>
       </c>
       <c r="O43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="E44" s="3">
         <v>1100</v>
       </c>
       <c r="F44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H44" s="3">
         <v>5000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>6100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>5700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>4500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>4200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>4300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -2373,75 +2571,87 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F46" s="3">
         <v>12800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>14000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>9200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>7300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>7500</v>
       </c>
       <c r="P46" s="3">
         <v>7300</v>
       </c>
       <c r="Q46" s="3">
+        <v>7500</v>
+      </c>
+      <c r="R46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2490,19 +2700,25 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>13700</v>
       </c>
       <c r="E48" s="3">
         <v>700</v>
       </c>
       <c r="F48" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2514,10 +2730,10 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>800</v>
@@ -2529,33 +2745,39 @@
         <v>800</v>
       </c>
       <c r="O48" s="3">
+        <v>800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>1400</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -2564,10 +2786,10 @@
         <v>400</v>
       </c>
       <c r="J49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>500</v>
@@ -2576,22 +2798,28 @@
         <v>500</v>
       </c>
       <c r="N49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
       </c>
       <c r="Q49" s="3">
+        <v>600</v>
+      </c>
+      <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
         <v>700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2690,28 +2924,34 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>91</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>91</v>
+      <c r="I52" s="3">
+        <v>200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>91</v>
@@ -2719,11 +2959,11 @@
       <c r="K52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F54" s="3">
         <v>13700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11000</v>
-      </c>
-      <c r="M54" s="3">
-        <v>9000</v>
-      </c>
-      <c r="N54" s="3">
-        <v>8700</v>
       </c>
       <c r="O54" s="3">
         <v>9000</v>
       </c>
       <c r="P54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="R54" s="3">
         <v>8800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2880,63 +3140,71 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1200</v>
       </c>
       <c r="J57" s="3">
         <v>1000</v>
       </c>
       <c r="K57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2947,23 +3215,23 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>91</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2980,78 +3248,90 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>800</v>
       </c>
       <c r="K59" s="3">
+        <v>600</v>
+      </c>
+      <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="E60" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="3">
         <v>1200</v>
       </c>
       <c r="G60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1800</v>
       </c>
       <c r="J60" s="3">
         <v>1800</v>
@@ -3060,33 +3340,39 @@
         <v>1800</v>
       </c>
       <c r="L60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N60" s="3">
         <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1900</v>
       </c>
       <c r="O60" s="3">
         <v>2000</v>
       </c>
       <c r="P60" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q60" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="R60" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T60" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3130,25 +3416,31 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>91</v>
+      <c r="D62" s="3">
+        <v>10900</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="3">
-        <v>100</v>
+      <c r="F62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>91</v>
+      <c r="H62" s="3">
+        <v>100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>91</v>
@@ -3159,11 +3451,11 @@
       <c r="K62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1800</v>
       </c>
       <c r="K66" s="3">
         <v>1800</v>
       </c>
       <c r="L66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N66" s="3">
         <v>1700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1900</v>
       </c>
       <c r="O66" s="3">
         <v>2000</v>
       </c>
       <c r="P66" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="Q66" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="R66" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F72" s="3">
         <v>300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F76" s="3">
         <v>12600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>7000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>6800</v>
       </c>
       <c r="O76" s="3">
         <v>7000</v>
       </c>
       <c r="P76" s="3">
+        <v>6800</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R76" s="3">
         <v>7300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3900,101 +4278,113 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
@@ -4005,8 +4395,14 @@
       <c r="R81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4025,13 +4421,15 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4055,10 +4453,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-900</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4395,26 +4835,28 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3" t="s">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="H91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4545,23 +4999,29 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>10300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4815,38 +5301,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -4877,32 +5375,32 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>10900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>1500</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SMIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E9" s="3">
         <v>900</v>
-      </c>
-      <c r="E9" s="3">
-        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>500</v>
       </c>
       <c r="G9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H9" s="3">
         <v>600</v>
       </c>
       <c r="I9" s="3">
+        <v>600</v>
+      </c>
+      <c r="J9" s="3">
         <v>800</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>700</v>
       </c>
       <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>400</v>
       </c>
       <c r="J10" s="3">
         <v>400</v>
       </c>
       <c r="K10" s="3">
+        <v>400</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -969,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
@@ -984,16 +997,19 @@
         <v>100</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,16 +1064,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>91</v>
@@ -1065,17 +1084,17 @@
       <c r="G14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1500</v>
       </c>
       <c r="K17" s="3">
         <v>1500</v>
       </c>
       <c r="L17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="M17" s="3">
         <v>3600</v>
       </c>
       <c r="N17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O17" s="3">
         <v>3300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>3000</v>
       </c>
       <c r="T17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-400</v>
       </c>
       <c r="J18" s="3">
         <v>-400</v>
       </c>
       <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,23 +1345,24 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1343,90 +1376,96 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
       </c>
       <c r="J21" s="3">
         <v>-400</v>
       </c>
       <c r="K21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1445,23 +1484,23 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>91</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1481,73 +1520,79 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
       </c>
       <c r="K23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
       </c>
       <c r="K26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-400</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
       </c>
       <c r="K27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1829,31 +1889,31 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>5100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>100</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1985,23 +2051,26 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2015,90 +2084,96 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>12100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
       </c>
       <c r="S41" s="3">
         <v>500</v>
       </c>
       <c r="T41" s="3">
+        <v>500</v>
+      </c>
+      <c r="U41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2426,13 +2515,16 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E43" s="3">
         <v>600</v>
@@ -2441,57 +2533,60 @@
         <v>600</v>
       </c>
       <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1100</v>
       </c>
       <c r="F44" s="3">
         <v>1100</v>
@@ -2500,46 +2595,49 @@
         <v>1100</v>
       </c>
       <c r="H44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I44" s="3">
         <v>5000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>5800</v>
-      </c>
-      <c r="K44" s="3">
-        <v>6100</v>
       </c>
       <c r="L44" s="3">
         <v>6100</v>
       </c>
       <c r="M44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N44" s="3">
         <v>5700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2547,7 +2645,7 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
@@ -2556,16 +2654,16 @@
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
@@ -2577,7 +2675,7 @@
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2586,72 +2684,78 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2706,16 +2810,19 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E48" s="3">
         <v>13700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -2724,19 +2831,19 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>700</v>
+      </c>
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>800</v>
       </c>
       <c r="M48" s="3">
         <v>800</v>
@@ -2751,27 +2858,30 @@
         <v>800</v>
       </c>
       <c r="Q48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>900</v>
       </c>
       <c r="S48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1400</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -2780,7 +2890,7 @@
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -2792,7 +2902,7 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
@@ -2804,7 +2914,7 @@
         <v>500</v>
       </c>
       <c r="P49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q49" s="3">
         <v>600</v>
@@ -2813,13 +2923,16 @@
         <v>600</v>
       </c>
       <c r="S49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2930,31 +3046,34 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>91</v>
@@ -2965,8 +3084,8 @@
       <c r="M52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E54" s="3">
         <v>27300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3142,90 +3271,94 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
       </c>
       <c r="M57" s="3">
         <v>1000</v>
       </c>
       <c r="N57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1100</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>91</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>91</v>
@@ -3233,8 +3366,8 @@
       <c r="M58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3254,75 +3387,81 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
       </c>
       <c r="G59" s="3">
         <v>900</v>
       </c>
       <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>800</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
       </c>
       <c r="Q59" s="3">
+        <v>800</v>
+      </c>
+      <c r="R59" s="3">
         <v>900</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
       <c r="T59" s="3">
+        <v>700</v>
+      </c>
+      <c r="U59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1300</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1200</v>
       </c>
       <c r="G60" s="3">
         <v>1200</v>
@@ -3331,10 +3470,10 @@
         <v>1200</v>
       </c>
       <c r="I60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J60" s="3">
         <v>1400</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1800</v>
       </c>
       <c r="K60" s="3">
         <v>1800</v>
@@ -3346,28 +3485,31 @@
         <v>1800</v>
       </c>
       <c r="N60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
@@ -3375,7 +3517,7 @@
         <v>1800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3422,16 +3564,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E62" s="3">
         <v>10900</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>91</v>
@@ -3439,11 +3584,11 @@
       <c r="G62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>91</v>
@@ -3457,8 +3602,8 @@
       <c r="M62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3646,34 +3800,37 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E66" s="3">
         <v>15300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1300</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1200</v>
       </c>
       <c r="G66" s="3">
         <v>1200</v>
       </c>
       <c r="H66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1800</v>
       </c>
       <c r="L66" s="3">
         <v>1800</v>
@@ -3682,28 +3839,31 @@
         <v>1800</v>
       </c>
       <c r="N66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-3300</v>
       </c>
       <c r="O72" s="3">
         <v>-3300</v>
       </c>
       <c r="P72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E76" s="3">
         <v>12000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4423,17 +4620,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
@@ -4459,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -4846,19 +5066,19 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>91</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5005,26 +5231,29 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>10300</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5307,23 +5549,26 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5331,16 +5576,16 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5381,29 +5629,29 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10900</v>
-      </c>
-      <c r="H102" s="3">
-        <v>200</v>
       </c>
       <c r="I102" s="3">
         <v>200</v>
       </c>
       <c r="J102" s="3">
+        <v>200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,210 +665,220 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>500</v>
       </c>
       <c r="G9" s="3">
         <v>500</v>
       </c>
       <c r="H9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I9" s="3">
         <v>600</v>
       </c>
       <c r="J9" s="3">
+        <v>600</v>
+      </c>
+      <c r="K9" s="3">
         <v>800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>700</v>
       </c>
       <c r="L9" s="3">
         <v>700</v>
       </c>
       <c r="M9" s="3">
+        <v>700</v>
+      </c>
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,58 +886,61 @@
         <v>900</v>
       </c>
       <c r="E10" s="3">
+        <v>900</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>400</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>400</v>
+      </c>
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
@@ -1000,16 +1014,19 @@
         <v>100</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>91</v>
@@ -1087,17 +1107,17 @@
       <c r="H14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1500</v>
       </c>
       <c r="L17" s="3">
         <v>1500</v>
       </c>
       <c r="M17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="N17" s="3">
         <v>3600</v>
       </c>
       <c r="O17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>3000</v>
       </c>
       <c r="U17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
       </c>
       <c r="K18" s="3">
         <v>-400</v>
       </c>
       <c r="L18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,26 +1379,27 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1379,93 +1413,99 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-2400</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-400</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1487,23 +1527,23 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>91</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1532,58 +1575,61 @@
         <v>-2400</v>
       </c>
       <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-400</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
       </c>
       <c r="L23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1591,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
@@ -1709,58 +1761,61 @@
         <v>-2400</v>
       </c>
       <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-400</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
       </c>
       <c r="L26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
@@ -1768,58 +1823,61 @@
         <v>-2400</v>
       </c>
       <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-400</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
       </c>
       <c r="L27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1892,31 +1953,31 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>100</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>5100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>100</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2054,26 +2121,29 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2087,34 +2157,37 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
@@ -2122,58 +2195,61 @@
         <v>-2400</v>
       </c>
       <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2240,122 +2319,128 @@
         <v>-2400</v>
       </c>
       <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>6800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>10500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
-      </c>
-      <c r="S41" s="3">
-        <v>500</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
+        <v>500</v>
+      </c>
+      <c r="V41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2518,16 +2608,19 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
@@ -2536,60 +2629,63 @@
         <v>600</v>
       </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1100</v>
       </c>
       <c r="G44" s="3">
         <v>1100</v>
@@ -2598,46 +2694,49 @@
         <v>1100</v>
       </c>
       <c r="I44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J44" s="3">
         <v>5000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>6100</v>
       </c>
       <c r="M44" s="3">
         <v>6100</v>
       </c>
       <c r="N44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O44" s="3">
         <v>5700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>4500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>4200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
@@ -2648,7 +2747,7 @@
         <v>700</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
@@ -2657,16 +2756,16 @@
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
@@ -2678,7 +2777,7 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2687,75 +2786,81 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
-      </c>
-      <c r="T45" s="3">
-        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E46" s="3">
         <v>10000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>12300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>12800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2813,19 +2918,22 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>700</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2834,19 +2942,19 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>700</v>
+      </c>
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>800</v>
       </c>
       <c r="N48" s="3">
         <v>800</v>
@@ -2861,19 +2969,22 @@
         <v>800</v>
       </c>
       <c r="R48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>900</v>
       </c>
       <c r="T48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -2881,10 +2992,10 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -2893,7 +3004,7 @@
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
@@ -2905,7 +3016,7 @@
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
@@ -2917,7 +3028,7 @@
         <v>500</v>
       </c>
       <c r="Q49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R49" s="3">
         <v>600</v>
@@ -2926,13 +3037,16 @@
         <v>600</v>
       </c>
       <c r="T49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3049,34 +3166,37 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="F52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>91</v>
@@ -3087,8 +3207,8 @@
       <c r="N52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E54" s="3">
         <v>25200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3272,96 +3402,100 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1000</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1100</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
       <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>91</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>91</v>
@@ -3369,8 +3503,8 @@
       <c r="N58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3390,81 +3524,87 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>900</v>
       </c>
       <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
-      </c>
-      <c r="P59" s="3">
-        <v>800</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
+        <v>800</v>
+      </c>
+      <c r="S59" s="3">
         <v>900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
       <c r="U59" s="3">
+        <v>700</v>
+      </c>
+      <c r="V59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
       </c>
       <c r="H60" s="3">
         <v>1200</v>
@@ -3473,10 +3613,10 @@
         <v>1200</v>
       </c>
       <c r="J60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1800</v>
       </c>
       <c r="L60" s="3">
         <v>1800</v>
@@ -3488,39 +3628,42 @@
         <v>1800</v>
       </c>
       <c r="O60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>1800</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3567,19 +3710,22 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E62" s="3">
         <v>10700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10900</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>91</v>
@@ -3587,11 +3733,11 @@
       <c r="H62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>91</v>
@@ -3605,8 +3751,8 @@
       <c r="N62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3803,37 +3958,40 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E66" s="3">
         <v>15500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1200</v>
       </c>
       <c r="H66" s="3">
         <v>1200</v>
       </c>
       <c r="I66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1800</v>
       </c>
       <c r="M66" s="3">
         <v>1800</v>
@@ -3842,28 +4000,31 @@
         <v>1800</v>
       </c>
       <c r="O66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-3300</v>
       </c>
       <c r="P72" s="3">
         <v>-3300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
         <v>9700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
@@ -4548,58 +4743,61 @@
         <v>-2400</v>
       </c>
       <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4621,20 +4819,21 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>-100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
@@ -4660,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5057,31 +5277,32 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>91</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
@@ -5243,20 +5473,20 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>10300</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5552,26 +5795,29 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1500</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5579,16 +5825,16 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -5632,29 +5881,29 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10900</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
       </c>
       <c r="J102" s="3">
         <v>200</v>
       </c>
       <c r="K102" s="3">
+        <v>200</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SMIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,121 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
       </c>
       <c r="I8" s="3">
         <v>1000</v>
@@ -780,7 +788,7 @@
         <v>1100</v>
       </c>
       <c r="K8" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="3">
         <v>1100</v>
@@ -789,158 +797,176 @@
         <v>1200</v>
       </c>
       <c r="N8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="3">
         <v>3400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3200</v>
       </c>
       <c r="Q8" s="3">
         <v>3800</v>
       </c>
       <c r="R8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="T8" s="3">
         <v>3100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F9" s="3">
         <v>800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="E10" s="3">
         <v>900</v>
       </c>
       <c r="F10" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="G10" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="H10" s="3">
         <v>600</v>
       </c>
       <c r="I10" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K10" s="3">
         <v>400</v>
       </c>
       <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>400</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1600</v>
       </c>
       <c r="P10" s="3">
         <v>1300</v>
       </c>
       <c r="Q10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S10" s="3">
         <v>1800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -1017,16 +1045,22 @@
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,43 +1121,49 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="3">
         <v>4200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1300</v>
       </c>
       <c r="K17" s="3">
         <v>1600</v>
       </c>
       <c r="L17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-400</v>
       </c>
       <c r="I18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1389,23 +1457,23 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1416,22 +1484,22 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1442,70 +1510,82 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-2400</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-400</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1530,27 +1610,27 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
@@ -1566,58 +1646,64 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
@@ -1628,8 +1714,14 @@
       <c r="V23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1640,14 +1732,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,58 +1850,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
@@ -1814,58 +1918,64 @@
       <c r="V26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
@@ -1876,8 +1986,14 @@
       <c r="V27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,13 +2054,19 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1956,35 +2078,35 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>5100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>400</v>
-      </c>
-      <c r="K29" s="3">
-        <v>100</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-100</v>
       </c>
       <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O29" s="3">
+        <v>100</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2133,23 +2273,23 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2160,22 +2300,22 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2186,58 +2326,64 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
@@ -2248,8 +2394,14 @@
       <c r="V33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2310,58 +2462,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
@@ -2372,75 +2530,87 @@
       <c r="V35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2487,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>8900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>10100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>10500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>12100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>500</v>
-      </c>
-      <c r="S41" s="3">
-        <v>900</v>
       </c>
       <c r="T41" s="3">
         <v>500</v>
       </c>
       <c r="U41" s="3">
+        <v>900</v>
+      </c>
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
+        <v>500</v>
+      </c>
+      <c r="X41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
@@ -2620,158 +2806,170 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>600</v>
       </c>
       <c r="H43" s="3">
         <v>600</v>
       </c>
       <c r="I43" s="3">
+        <v>600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>600</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>2200</v>
       </c>
       <c r="R43" s="3">
         <v>2100</v>
       </c>
       <c r="S43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F44" s="3">
         <v>2000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1100</v>
       </c>
       <c r="I44" s="3">
         <v>1100</v>
       </c>
       <c r="J44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L44" s="3">
         <v>5000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>5800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>6100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>6100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>5700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>5400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>4800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>4500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>4200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>4300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>4500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -2780,87 +2978,99 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>12300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>12800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>14000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>9700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7600</v>
-      </c>
-      <c r="R46" s="3">
-        <v>7300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>7500</v>
       </c>
       <c r="T46" s="3">
         <v>7300</v>
       </c>
       <c r="U46" s="3">
+        <v>7500</v>
+      </c>
+      <c r="V46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W46" s="3">
         <v>7000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -2921,31 +3131,37 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F48" s="3">
         <v>13300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>700</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
       </c>
       <c r="J48" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -2957,10 +3173,10 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="O48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>800</v>
@@ -2972,45 +3188,51 @@
         <v>800</v>
       </c>
       <c r="S48" s="3">
+        <v>800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>800</v>
+      </c>
+      <c r="U48" s="3">
         <v>900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -3019,10 +3241,10 @@
         <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -3031,22 +3253,28 @@
         <v>500</v>
       </c>
       <c r="R49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T49" s="3">
         <v>600</v>
       </c>
       <c r="U49" s="3">
+        <v>600</v>
+      </c>
+      <c r="V49" s="3">
+        <v>600</v>
+      </c>
+      <c r="W49" s="3">
         <v>700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3169,40 +3403,46 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>91</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>91</v>
+      <c r="M52" s="3">
+        <v>200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>91</v>
@@ -3210,11 +3450,11 @@
       <c r="O52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F54" s="3">
         <v>22400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>25200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>27300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11000</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>9000</v>
-      </c>
-      <c r="R54" s="3">
-        <v>8700</v>
       </c>
       <c r="S54" s="3">
         <v>9000</v>
       </c>
       <c r="T54" s="3">
+        <v>8700</v>
+      </c>
+      <c r="U54" s="3">
+        <v>9000</v>
+      </c>
+      <c r="V54" s="3">
         <v>8800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>8600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3403,114 +3663,122 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>700</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1200</v>
       </c>
       <c r="N57" s="3">
         <v>1000</v>
       </c>
       <c r="O57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>91</v>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3527,102 +3795,114 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>800</v>
       </c>
       <c r="O59" s="3">
+        <v>600</v>
+      </c>
+      <c r="P59" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1200</v>
       </c>
       <c r="J60" s="3">
         <v>1200</v>
       </c>
       <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M60" s="3">
         <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1800</v>
       </c>
       <c r="N60" s="3">
         <v>1800</v>
@@ -3631,46 +3911,52 @@
         <v>1800</v>
       </c>
       <c r="P60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R60" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1900</v>
       </c>
       <c r="S60" s="3">
         <v>2000</v>
       </c>
       <c r="T60" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="U60" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="V60" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X60" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3713,37 +3999,43 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F62" s="3">
         <v>10400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>10900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J62" s="3">
-        <v>100</v>
+      <c r="J62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>91</v>
+      <c r="L62" s="3">
+        <v>100</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>91</v>
@@ -3754,11 +4046,11 @@
       <c r="O62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>15300</v>
+        <v>17200</v>
       </c>
       <c r="E66" s="3">
-        <v>15500</v>
+        <v>17400</v>
       </c>
       <c r="F66" s="3">
         <v>15300</v>
       </c>
       <c r="G66" s="3">
+        <v>15500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I66" s="3">
         <v>1300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1800</v>
       </c>
       <c r="O66" s="3">
         <v>1800</v>
       </c>
       <c r="P66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R66" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1900</v>
       </c>
       <c r="S66" s="3">
         <v>2000</v>
       </c>
       <c r="T66" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="U66" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="V66" s="3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X66" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>12600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>8700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>9400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9300</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>7000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>6800</v>
       </c>
       <c r="S76" s="3">
         <v>7000</v>
       </c>
       <c r="T76" s="3">
+        <v>6800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V76" s="3">
         <v>7300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4667,125 +5045,137 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
@@ -4796,8 +5186,14 @@
       <c r="V81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -4829,17 +5227,17 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>-100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4862,10 +5260,10 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-900</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5278,38 +5718,40 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="L91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5464,35 +5918,41 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>10300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5798,50 +6284,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>1500</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="P100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5860,13 +6352,19 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5884,32 +6382,32 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -5922,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>10900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>1500</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>1300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>500</v>
       </c>
       <c r="J9" s="3">
         <v>500</v>
       </c>
       <c r="K9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>600</v>
       </c>
       <c r="M9" s="3">
+        <v>600</v>
+      </c>
+      <c r="N9" s="3">
         <v>800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>700</v>
       </c>
       <c r="O9" s="3">
         <v>700</v>
       </c>
       <c r="P9" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
-      </c>
-      <c r="E10" s="3">
-        <v>900</v>
       </c>
       <c r="F10" s="3">
         <v>900</v>
@@ -915,58 +924,61 @@
         <v>900</v>
       </c>
       <c r="H10" s="3">
+        <v>900</v>
+      </c>
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
-      </c>
-      <c r="M10" s="3">
-        <v>400</v>
       </c>
       <c r="N10" s="3">
         <v>400</v>
       </c>
       <c r="O10" s="3">
+        <v>400</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -1051,16 +1064,19 @@
         <v>100</v>
       </c>
       <c r="V12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,28 +1143,31 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1100</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>91</v>
@@ -1156,17 +1175,17 @@
       <c r="K14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1500</v>
       </c>
       <c r="O17" s="3">
         <v>1500</v>
       </c>
       <c r="P17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="Q17" s="3">
         <v>3600</v>
       </c>
       <c r="R17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3300</v>
-      </c>
-      <c r="W17" s="3">
-        <v>3000</v>
       </c>
       <c r="X17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-400</v>
       </c>
       <c r="N18" s="3">
         <v>-400</v>
       </c>
       <c r="O18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,35 +1480,36 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1490,102 +1523,108 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2400</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-400</v>
       </c>
       <c r="N21" s="3">
         <v>-400</v>
       </c>
       <c r="O21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1616,23 +1655,23 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>91</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-2400</v>
       </c>
       <c r="G23" s="3">
         <v>-2400</v>
       </c>
       <c r="H23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1738,11 +1783,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-2400</v>
       </c>
       <c r="G26" s="3">
         <v>-2400</v>
       </c>
       <c r="H26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-2400</v>
       </c>
       <c r="G27" s="3">
         <v>-2400</v>
       </c>
       <c r="H27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,16 +2117,19 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2084,31 +2144,31 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>5100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2264,35 +2330,38 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2306,102 +2375,108 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-2400</v>
       </c>
       <c r="G33" s="3">
         <v>-2400</v>
       </c>
       <c r="H33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-2400</v>
       </c>
       <c r="G35" s="3">
         <v>-2400</v>
       </c>
       <c r="H35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>10100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
-      </c>
-      <c r="V41" s="3">
-        <v>500</v>
       </c>
       <c r="W41" s="3">
         <v>500</v>
       </c>
       <c r="X41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2797,25 +2886,28 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>600</v>
       </c>
       <c r="I43" s="3">
         <v>600</v>
@@ -2824,49 +2916,52 @@
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2874,19 +2969,19 @@
         <v>1800</v>
       </c>
       <c r="E44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1100</v>
       </c>
       <c r="J44" s="3">
         <v>1100</v>
@@ -2895,57 +2990,60 @@
         <v>1100</v>
       </c>
       <c r="L44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M44" s="3">
         <v>5000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>5800</v>
-      </c>
-      <c r="O44" s="3">
-        <v>6100</v>
       </c>
       <c r="P44" s="3">
         <v>6100</v>
       </c>
       <c r="Q44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R44" s="3">
         <v>5700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>5400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>4800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>700</v>
@@ -2954,7 +3052,7 @@
         <v>700</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -2963,16 +3061,16 @@
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -2984,7 +3082,7 @@
         <v>200</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2993,84 +3091,90 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E46" s="3">
         <v>6000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3137,28 +3241,31 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E48" s="3">
         <v>13500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -3167,19 +3274,19 @@
         <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>800</v>
       </c>
       <c r="Q48" s="3">
         <v>800</v>
@@ -3194,19 +3301,22 @@
         <v>800</v>
       </c>
       <c r="U48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="V48" s="3">
         <v>900</v>
       </c>
       <c r="W48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="X48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3217,16 +3327,16 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>1300</v>
       </c>
       <c r="H49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I49" s="3">
         <v>1400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -3235,7 +3345,7 @@
         <v>300</v>
       </c>
       <c r="L49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
@@ -3247,7 +3357,7 @@
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
@@ -3259,7 +3369,7 @@
         <v>500</v>
       </c>
       <c r="T49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U49" s="3">
         <v>600</v>
@@ -3268,13 +3378,16 @@
         <v>600</v>
       </c>
       <c r="W49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="X49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3409,43 +3525,46 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>91</v>
@@ -3456,8 +3575,8 @@
       <c r="Q52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E54" s="3">
         <v>20000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>21200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>22400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3665,114 +3794,118 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1000</v>
       </c>
       <c r="Q57" s="3">
         <v>1000</v>
       </c>
       <c r="R57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1100</v>
       </c>
       <c r="U57" s="3">
         <v>1100</v>
       </c>
       <c r="V57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>91</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>91</v>
@@ -3780,8 +3913,8 @@
       <c r="Q58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3801,99 +3934,105 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>900</v>
       </c>
       <c r="K59" s="3">
         <v>900</v>
       </c>
       <c r="L59" s="3">
+        <v>900</v>
+      </c>
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
-      </c>
-      <c r="S59" s="3">
-        <v>800</v>
       </c>
       <c r="T59" s="3">
         <v>800</v>
       </c>
       <c r="U59" s="3">
+        <v>800</v>
+      </c>
+      <c r="V59" s="3">
         <v>900</v>
-      </c>
-      <c r="V59" s="3">
-        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>700</v>
       </c>
       <c r="X59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1200</v>
       </c>
       <c r="K60" s="3">
         <v>1200</v>
@@ -3902,10 +4041,10 @@
         <v>1200</v>
       </c>
       <c r="M60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1800</v>
       </c>
       <c r="O60" s="3">
         <v>1800</v>
@@ -3917,48 +4056,51 @@
         <v>1800</v>
       </c>
       <c r="R60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1800</v>
       </c>
       <c r="H61" s="3">
         <v>1800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4005,28 +4147,31 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>10100</v>
+        <v>11400</v>
       </c>
       <c r="E62" s="3">
         <v>10100</v>
       </c>
       <c r="F62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="G62" s="3">
         <v>10400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10900</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>91</v>
@@ -4034,11 +4179,11 @@
       <c r="K62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>91</v>
@@ -4052,8 +4197,8 @@
       <c r="Q62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,46 +4431,49 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1200</v>
       </c>
       <c r="K66" s="3">
         <v>1200</v>
       </c>
       <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1800</v>
       </c>
       <c r="P66" s="3">
         <v>1800</v>
@@ -4325,28 +4482,31 @@
         <v>1800</v>
       </c>
       <c r="R66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-3300</v>
       </c>
       <c r="S72" s="3">
         <v>-3300</v>
       </c>
       <c r="T72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>11900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-2400</v>
       </c>
       <c r="G81" s="3">
         <v>-2400</v>
       </c>
       <c r="H81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5227,20 +5425,20 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>-100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -5266,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
@@ -5729,31 +5949,31 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>91</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5924,38 +6150,41 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-800</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>10300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6290,35 +6532,38 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>1500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6326,16 +6571,16 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6358,13 +6603,16 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>91</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6388,29 +6636,29 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>10900</v>
-      </c>
-      <c r="L102" s="3">
-        <v>200</v>
       </c>
       <c r="M102" s="3">
         <v>200</v>
       </c>
       <c r="N102" s="3">
+        <v>200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>SMIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,260 +665,270 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>900</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>500</v>
       </c>
       <c r="K9" s="3">
         <v>500</v>
       </c>
       <c r="L9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M9" s="3">
         <v>600</v>
       </c>
       <c r="N9" s="3">
+        <v>600</v>
+      </c>
+      <c r="O9" s="3">
         <v>800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>700</v>
       </c>
       <c r="P9" s="3">
         <v>700</v>
       </c>
       <c r="Q9" s="3">
+        <v>700</v>
+      </c>
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>900</v>
       </c>
       <c r="G10" s="3">
         <v>900</v>
@@ -927,58 +937,61 @@
         <v>900</v>
       </c>
       <c r="I10" s="3">
+        <v>900</v>
+      </c>
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>400</v>
       </c>
       <c r="O10" s="3">
         <v>400</v>
       </c>
       <c r="P10" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -1067,16 +1081,19 @@
         <v>100</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,31 +1163,34 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>91</v>
@@ -1178,17 +1198,17 @@
       <c r="L14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1500</v>
       </c>
       <c r="P17" s="3">
         <v>1500</v>
       </c>
       <c r="Q17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="R17" s="3">
         <v>3600</v>
       </c>
       <c r="S17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>3000</v>
       </c>
       <c r="Y17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-400</v>
       </c>
       <c r="O18" s="3">
         <v>-400</v>
       </c>
       <c r="P18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,38 +1514,39 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1526,105 +1560,111 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>2400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2400</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-400</v>
       </c>
       <c r="O21" s="3">
         <v>-400</v>
       </c>
       <c r="P21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1658,23 +1698,23 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>91</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1694,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-2400</v>
       </c>
       <c r="H23" s="3">
         <v>-2400</v>
       </c>
       <c r="I23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-400</v>
       </c>
       <c r="O23" s="3">
         <v>-400</v>
       </c>
       <c r="P23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1786,11 +1832,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-2400</v>
       </c>
       <c r="H26" s="3">
         <v>-2400</v>
       </c>
       <c r="I26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-400</v>
       </c>
       <c r="O26" s="3">
         <v>-400</v>
       </c>
       <c r="P26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-2400</v>
       </c>
       <c r="H27" s="3">
         <v>-2400</v>
       </c>
       <c r="I27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2131,8 +2192,8 @@
       <c r="E29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2147,31 +2208,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2333,38 +2400,41 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2378,105 +2448,111 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-2400</v>
       </c>
       <c r="H33" s="3">
         <v>-2400</v>
       </c>
       <c r="I33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-2400</v>
       </c>
       <c r="H35" s="3">
         <v>-2400</v>
       </c>
       <c r="I35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
-      </c>
-      <c r="W41" s="3">
-        <v>500</v>
       </c>
       <c r="X41" s="3">
         <v>500</v>
       </c>
       <c r="Y41" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2889,28 +2979,31 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
@@ -2919,72 +3012,75 @@
         <v>600</v>
       </c>
       <c r="L43" s="3">
+        <v>600</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="E44" s="3">
         <v>1800</v>
       </c>
       <c r="F44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1100</v>
       </c>
       <c r="K44" s="3">
         <v>1100</v>
@@ -2993,60 +3089,63 @@
         <v>1100</v>
       </c>
       <c r="M44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N44" s="3">
         <v>5000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>5800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>6100</v>
       </c>
       <c r="Q44" s="3">
         <v>6100</v>
       </c>
       <c r="R44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S44" s="3">
         <v>5700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>5400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>4800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>700</v>
       </c>
       <c r="H45" s="3">
         <v>700</v>
@@ -3055,7 +3154,7 @@
         <v>700</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
@@ -3064,16 +3163,16 @@
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
@@ -3085,7 +3184,7 @@
         <v>200</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3094,87 +3193,93 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>7900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3244,31 +3349,34 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E48" s="3">
         <v>14700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -3277,19 +3385,19 @@
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>800</v>
       </c>
       <c r="R48" s="3">
         <v>800</v>
@@ -3304,24 +3412,27 @@
         <v>800</v>
       </c>
       <c r="V48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="W48" s="3">
         <v>900</v>
       </c>
       <c r="X48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
         <v>300</v>
@@ -3330,16 +3441,16 @@
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>1300</v>
       </c>
       <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
         <v>1400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -3348,7 +3459,7 @@
         <v>300</v>
       </c>
       <c r="M49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N49" s="3">
         <v>400</v>
@@ -3360,7 +3471,7 @@
         <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
@@ -3372,7 +3483,7 @@
         <v>500</v>
       </c>
       <c r="U49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V49" s="3">
         <v>600</v>
@@ -3381,13 +3492,16 @@
         <v>600</v>
       </c>
       <c r="X49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
@@ -3537,37 +3657,37 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>91</v>
@@ -3578,8 +3698,8 @@
       <c r="R52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E54" s="3">
         <v>23300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>22400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>25200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3795,120 +3925,124 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1000</v>
       </c>
       <c r="R57" s="3">
         <v>1000</v>
       </c>
       <c r="S57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1100</v>
       </c>
       <c r="V57" s="3">
         <v>1100</v>
       </c>
       <c r="W57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="I58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>91</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>91</v>
@@ -3916,8 +4050,8 @@
       <c r="R58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3946,96 +4083,99 @@
         <v>2800</v>
       </c>
       <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>900</v>
       </c>
       <c r="L59" s="3">
         <v>900</v>
       </c>
       <c r="M59" s="3">
+        <v>900</v>
+      </c>
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
-      </c>
-      <c r="T59" s="3">
-        <v>800</v>
       </c>
       <c r="U59" s="3">
         <v>800</v>
       </c>
       <c r="V59" s="3">
+        <v>800</v>
+      </c>
+      <c r="W59" s="3">
         <v>900</v>
-      </c>
-      <c r="W59" s="3">
-        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>700</v>
       </c>
       <c r="Y59" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1200</v>
       </c>
       <c r="L60" s="3">
         <v>1200</v>
@@ -4044,10 +4184,10 @@
         <v>1200</v>
       </c>
       <c r="N60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1800</v>
       </c>
       <c r="P60" s="3">
         <v>1800</v>
@@ -4059,51 +4199,54 @@
         <v>1800</v>
       </c>
       <c r="S60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1800</v>
       </c>
       <c r="I61" s="3">
         <v>1800</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4150,31 +4293,34 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E62" s="3">
         <v>11400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>10100</v>
       </c>
       <c r="F62" s="3">
         <v>10100</v>
       </c>
       <c r="G62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="H62" s="3">
         <v>10400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>10700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10900</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>91</v>
@@ -4182,11 +4328,11 @@
       <c r="L62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>91</v>
@@ -4200,8 +4346,8 @@
       <c r="R62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4434,49 +4589,52 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E66" s="3">
         <v>18300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>17400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1200</v>
       </c>
       <c r="L66" s="3">
         <v>1200</v>
       </c>
       <c r="M66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1800</v>
       </c>
       <c r="Q66" s="3">
         <v>1800</v>
@@ -4485,28 +4643,31 @@
         <v>1800</v>
       </c>
       <c r="S66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-3300</v>
       </c>
       <c r="T72" s="3">
         <v>-3300</v>
       </c>
       <c r="U72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>5000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-2400</v>
       </c>
       <c r="H81" s="3">
         <v>-2400</v>
       </c>
       <c r="I81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
@@ -5428,20 +5627,20 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>-100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -5467,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5940,43 +6160,44 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>91</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6153,41 +6380,44 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>4700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1800</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10300</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
@@ -6544,29 +6790,29 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>1500</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6574,16 +6820,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6639,29 +6888,29 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>10900</v>
-      </c>
-      <c r="M102" s="3">
-        <v>200</v>
       </c>
       <c r="N102" s="3">
         <v>200</v>
       </c>
       <c r="O102" s="3">
+        <v>200</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>400</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S8" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3800</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3700</v>
-      </c>
-      <c r="X8" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>900</v>
+        <v>4800</v>
       </c>
       <c r="E9" s="3">
-        <v>1400</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
         <v>1300</v>
       </c>
       <c r="G9" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H9" s="3">
+        <v>700</v>
+      </c>
+      <c r="I9" s="3">
         <v>800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>500</v>
       </c>
       <c r="L9" s="3">
         <v>500</v>
       </c>
       <c r="M9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N9" s="3">
         <v>600</v>
       </c>
       <c r="O9" s="3">
+        <v>600</v>
+      </c>
+      <c r="P9" s="3">
         <v>800</v>
-      </c>
-      <c r="P9" s="3">
-        <v>700</v>
       </c>
       <c r="Q9" s="3">
         <v>700</v>
       </c>
       <c r="R9" s="3">
+        <v>700</v>
+      </c>
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>900</v>
+        <v>5100</v>
       </c>
       <c r="E10" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="F10" s="3">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="G10" s="3">
-        <v>900</v>
+        <v>2300</v>
       </c>
       <c r="H10" s="3">
-        <v>900</v>
+        <v>-300</v>
       </c>
       <c r="I10" s="3">
         <v>900</v>
       </c>
       <c r="J10" s="3">
+        <v>900</v>
+      </c>
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>400</v>
       </c>
       <c r="P10" s="3">
         <v>400</v>
       </c>
       <c r="Q10" s="3">
+        <v>400</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1084,16 +1098,19 @@
         <v>100</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,34 +1183,37 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>91</v>
@@ -1201,17 +1221,17 @@
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>18400</v>
       </c>
       <c r="E17" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6300</v>
-      </c>
       <c r="H17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I17" s="3">
         <v>4200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1500</v>
       </c>
       <c r="Q17" s="3">
         <v>1500</v>
       </c>
       <c r="R17" s="3">
-        <v>3600</v>
+        <v>1500</v>
       </c>
       <c r="S17" s="3">
         <v>3600</v>
       </c>
       <c r="T17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>3000</v>
       </c>
       <c r="Z17" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1000</v>
+        <v>-8500</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-400</v>
       </c>
       <c r="P18" s="3">
         <v>-400</v>
       </c>
       <c r="Q18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,41 +1548,42 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
       </c>
       <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1563,108 +1597,114 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>-800</v>
+        <v>-3200</v>
       </c>
       <c r="E21" s="3">
-        <v>2400</v>
+        <v>-900</v>
       </c>
       <c r="F21" s="3">
-        <v>-900</v>
+        <v>2600</v>
       </c>
       <c r="G21" s="3">
-        <v>-3200</v>
+        <v>-1400</v>
       </c>
       <c r="H21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2400</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-400</v>
       </c>
       <c r="P21" s="3">
         <v>-400</v>
       </c>
       <c r="Q21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1701,23 +1741,23 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>91</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-3700</v>
       </c>
       <c r="E23" s="3">
-        <v>2200</v>
+        <v>-1000</v>
       </c>
       <c r="F23" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="G23" s="3">
-        <v>-3500</v>
+        <v>-1600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2400</v>
+        <v>-4000</v>
       </c>
       <c r="I23" s="3">
         <v>-2400</v>
       </c>
       <c r="J23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
       <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
@@ -1835,11 +1881,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-400</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-3700</v>
       </c>
       <c r="E26" s="3">
-        <v>2200</v>
+        <v>-1100</v>
       </c>
       <c r="F26" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="G26" s="3">
-        <v>-3500</v>
+        <v>-1600</v>
       </c>
       <c r="H26" s="3">
-        <v>-2400</v>
+        <v>-4000</v>
       </c>
       <c r="I26" s="3">
         <v>-2400</v>
       </c>
       <c r="J26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
       <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-3700</v>
       </c>
       <c r="E27" s="3">
-        <v>2200</v>
+        <v>-1100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="G27" s="3">
-        <v>-3500</v>
+        <v>-1600</v>
       </c>
       <c r="H27" s="3">
-        <v>-2400</v>
+        <v>-4000</v>
       </c>
       <c r="I27" s="3">
         <v>-2400</v>
       </c>
       <c r="J27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,13 +2239,16 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
+      <c r="D29" s="3">
+        <v>400</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>91</v>
@@ -2195,11 +2256,11 @@
       <c r="F29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2211,31 +2272,31 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>5100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2403,41 +2470,44 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
       </c>
       <c r="L32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2451,108 +2521,114 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-3300</v>
       </c>
       <c r="E33" s="3">
-        <v>2200</v>
+        <v>-1100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="G33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H33" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2400</v>
       </c>
       <c r="I33" s="3">
         <v>-2400</v>
       </c>
       <c r="J33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-3300</v>
       </c>
       <c r="E35" s="3">
-        <v>2200</v>
+        <v>-1100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="G35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H35" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2400</v>
       </c>
       <c r="I35" s="3">
         <v>-2400</v>
       </c>
       <c r="J35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
-      </c>
-      <c r="X41" s="3">
-        <v>500</v>
       </c>
       <c r="Y41" s="3">
         <v>500</v>
       </c>
       <c r="Z41" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA41" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2982,31 +3072,34 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -3015,75 +3108,78 @@
         <v>600</v>
       </c>
       <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>2200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1800</v>
       </c>
       <c r="F44" s="3">
         <v>1800</v>
       </c>
       <c r="G44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1100</v>
       </c>
       <c r="L44" s="3">
         <v>1100</v>
@@ -3092,63 +3188,66 @@
         <v>1100</v>
       </c>
       <c r="N44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O44" s="3">
         <v>5000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>5800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>6100</v>
       </c>
       <c r="R44" s="3">
         <v>6100</v>
       </c>
       <c r="S44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="T44" s="3">
         <v>5700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>5400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>4800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>4500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>4200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>4300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>4500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>700</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -3157,7 +3256,7 @@
         <v>700</v>
       </c>
       <c r="K45" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -3166,16 +3265,16 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>5300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -3187,7 +3286,7 @@
         <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3196,90 +3295,96 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
@@ -3352,34 +3457,37 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14500</v>
+        <v>17800</v>
       </c>
       <c r="E48" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F48" s="3">
         <v>14700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>13700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>13300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>13400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -3388,19 +3496,19 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>800</v>
       </c>
       <c r="S48" s="3">
         <v>800</v>
@@ -3415,27 +3523,30 @@
         <v>800</v>
       </c>
       <c r="W48" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X48" s="3">
         <v>900</v>
       </c>
       <c r="Y48" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Z48" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
@@ -3444,16 +3555,16 @@
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
       </c>
       <c r="J49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K49" s="3">
         <v>1400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>300</v>
@@ -3462,7 +3573,7 @@
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
@@ -3474,7 +3585,7 @@
         <v>400</v>
       </c>
       <c r="R49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S49" s="3">
         <v>500</v>
@@ -3486,7 +3597,7 @@
         <v>500</v>
       </c>
       <c r="V49" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W49" s="3">
         <v>600</v>
@@ -3495,13 +3606,16 @@
         <v>600</v>
       </c>
       <c r="Y49" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Z49" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3648,49 +3765,52 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E52" s="3">
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>200</v>
       </c>
       <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>91</v>
@@ -3701,8 +3821,8 @@
       <c r="S52" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>20400</v>
+        <v>22800</v>
       </c>
       <c r="E54" s="3">
-        <v>23300</v>
+        <v>20500</v>
       </c>
       <c r="F54" s="3">
+        <v>23400</v>
+      </c>
+      <c r="G54" s="3">
         <v>20000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>22400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>25200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>27300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>600</v>
       </c>
       <c r="G57" s="3">
         <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>600</v>
+      </c>
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1000</v>
       </c>
       <c r="S57" s="3">
         <v>1000</v>
       </c>
       <c r="T57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1100</v>
       </c>
       <c r="W57" s="3">
         <v>1100</v>
       </c>
       <c r="X57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -4009,43 +4143,43 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>91</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>91</v>
@@ -4053,8 +4187,8 @@
       <c r="S58" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4074,111 +4208,117 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>4500</v>
       </c>
       <c r="E59" s="3">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="F59" s="3">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G59" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H59" s="3">
         <v>2900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>900</v>
       </c>
       <c r="M59" s="3">
         <v>900</v>
       </c>
       <c r="N59" s="3">
+        <v>900</v>
+      </c>
+      <c r="O59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>800</v>
       </c>
       <c r="V59" s="3">
         <v>800</v>
       </c>
       <c r="W59" s="3">
+        <v>800</v>
+      </c>
+      <c r="X59" s="3">
         <v>900</v>
-      </c>
-      <c r="X59" s="3">
-        <v>700</v>
       </c>
       <c r="Y59" s="3">
         <v>700</v>
       </c>
       <c r="Z59" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="E60" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F60" s="3">
-        <v>4300</v>
+        <v>4700</v>
       </c>
       <c r="G60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1200</v>
       </c>
       <c r="M60" s="3">
         <v>1200</v>
@@ -4187,10 +4327,10 @@
         <v>1200</v>
       </c>
       <c r="O60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1800</v>
       </c>
       <c r="Q60" s="3">
         <v>1800</v>
@@ -4202,54 +4342,57 @@
         <v>1800</v>
       </c>
       <c r="T60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1800</v>
       </c>
       <c r="J61" s="3">
         <v>1800</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4296,34 +4439,37 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E62" s="3">
         <v>10800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10100</v>
       </c>
       <c r="G62" s="3">
         <v>10100</v>
       </c>
       <c r="H62" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I62" s="3">
         <v>10400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10900</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>91</v>
@@ -4331,11 +4477,11 @@
       <c r="M62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>91</v>
@@ -4349,8 +4495,8 @@
       <c r="S62" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4592,52 +4747,55 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>16200</v>
+        <v>22200</v>
       </c>
       <c r="E66" s="3">
-        <v>18300</v>
+        <v>16800</v>
       </c>
       <c r="F66" s="3">
-        <v>17200</v>
+        <v>18700</v>
       </c>
       <c r="G66" s="3">
+        <v>17900</v>
+      </c>
+      <c r="H66" s="3">
         <v>17400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1800</v>
       </c>
       <c r="R66" s="3">
         <v>1800</v>
@@ -4646,28 +4804,31 @@
         <v>1800</v>
       </c>
       <c r="T66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-8200</v>
+        <v>-11700</v>
       </c>
       <c r="E72" s="3">
-        <v>-7300</v>
+        <v>-8600</v>
       </c>
       <c r="F72" s="3">
-        <v>-9500</v>
+        <v>-7600</v>
       </c>
       <c r="G72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-8500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-3300</v>
       </c>
       <c r="U72" s="3">
         <v>-3300</v>
       </c>
       <c r="V72" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>4100</v>
+        <v>600</v>
       </c>
       <c r="E76" s="3">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="F76" s="3">
-        <v>2800</v>
+        <v>4700</v>
       </c>
       <c r="G76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H76" s="3">
         <v>3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>7400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>7800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-3300</v>
       </c>
       <c r="E81" s="3">
-        <v>2200</v>
+        <v>-1100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="G81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H81" s="3">
         <v>-3500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2400</v>
       </c>
       <c r="I81" s="3">
         <v>-2400</v>
       </c>
       <c r="J81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5615,13 +5813,14 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -5630,20 +5829,20 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -5669,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>-2600</v>
+        <v>-8000</v>
       </c>
       <c r="E89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6161,13 +6381,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -6176,31 +6397,31 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>91</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6383,44 +6610,47 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>4700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6781,41 +7024,44 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>1500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6823,16 +7069,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6891,29 +7140,29 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10900</v>
-      </c>
-      <c r="N102" s="3">
-        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>200</v>
       </c>
       <c r="P102" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SMIT_QTR_FIN.xlsx
@@ -6388,7 +6388,7 @@
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
